--- a/parabolic/2025/07/24/parabolic.xlsx
+++ b/parabolic/2025/07/24/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>3232</t>
+          <t>2170</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D2" t="n">
-        <v>185900</v>
+        <v>142800</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>6425</t>
+          <t>268A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>995</v>
+        <v>774</v>
       </c>
       <c r="D3" t="n">
-        <v>155800</v>
+        <v>429000</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,19 +519,19 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>6999</t>
+          <t>3232</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>868</v>
+        <v>501</v>
       </c>
       <c r="D4" t="n">
-        <v>451600</v>
+        <v>205200</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>7022</t>
+          <t>3679</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>283</v>
+        <v>479</v>
       </c>
       <c r="D5" t="n">
-        <v>124300</v>
+        <v>271000</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>7593</t>
+          <t>4620</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>467</v>
+        <v>578</v>
       </c>
       <c r="D6" t="n">
-        <v>140400</v>
+        <v>148300</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>8515</t>
+          <t>6093</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>439</v>
+        <v>131</v>
       </c>
       <c r="D7" t="n">
-        <v>729600</v>
+        <v>145800</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>8572</t>
+          <t>6425</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>430.7999877929688</v>
+        <v>987</v>
       </c>
       <c r="D8" t="n">
-        <v>357200</v>
+        <v>245400</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,25 +634,209 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>8613</t>
+          <t>6999</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>922</v>
+        <v>868</v>
       </c>
       <c r="D9" t="n">
-        <v>131500</v>
+        <v>451600</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>7022</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>284</v>
+      </c>
+      <c r="D10" t="n">
+        <v>156500</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>7048</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>304</v>
+      </c>
+      <c r="D11" t="n">
+        <v>173300</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>7085</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>716</v>
+      </c>
+      <c r="D12" t="n">
+        <v>163900</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>7593</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>468</v>
+      </c>
+      <c r="D13" t="n">
+        <v>182500</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>8515</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>438</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1039400</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>8572</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>432.5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>698000</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>8613</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>924</v>
+      </c>
+      <c r="D16" t="n">
+        <v>303900</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>8628</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>720</v>
+      </c>
+      <c r="D17" t="n">
+        <v>298200</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/07/24/parabolic.xlsx
+++ b/parabolic/2025/07/24/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D2" t="n">
-        <v>142800</v>
+        <v>200100</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="D3" t="n">
-        <v>429000</v>
+        <v>608000</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>3232</t>
+          <t>3031</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>501</v>
+        <v>660</v>
       </c>
       <c r="D4" t="n">
-        <v>205200</v>
+        <v>112500</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>3679</t>
+          <t>3232</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="D5" t="n">
-        <v>271000</v>
+        <v>224700</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>4620</t>
+          <t>3625</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>578</v>
+        <v>839</v>
       </c>
       <c r="D6" t="n">
-        <v>148300</v>
+        <v>102500</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>6093</t>
+          <t>3679</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>131</v>
+        <v>476</v>
       </c>
       <c r="D7" t="n">
-        <v>145800</v>
+        <v>338700</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>6425</t>
+          <t>3793</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>987</v>
+        <v>562</v>
       </c>
       <c r="D8" t="n">
-        <v>245400</v>
+        <v>155100</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,19 +634,19 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>6999</t>
+          <t>3853</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>868</v>
+        <v>650</v>
       </c>
       <c r="D9" t="n">
-        <v>451600</v>
+        <v>169100</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>7022</t>
+          <t>4228</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>284</v>
+        <v>349</v>
       </c>
       <c r="D10" t="n">
-        <v>156500</v>
+        <v>111600</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>7048</t>
+          <t>4240</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="D11" t="n">
-        <v>173300</v>
+        <v>103700</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>7085</t>
+          <t>4620</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>716</v>
+        <v>575</v>
       </c>
       <c r="D12" t="n">
-        <v>163900</v>
+        <v>179300</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>7593</t>
+          <t>6093</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>468</v>
+        <v>131</v>
       </c>
       <c r="D13" t="n">
-        <v>182500</v>
+        <v>168900</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>8515</t>
+          <t>6425</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>438</v>
+        <v>995</v>
       </c>
       <c r="D14" t="n">
-        <v>1039400</v>
+        <v>368400</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>8572</t>
+          <t>6696</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>432.5</v>
+        <v>577</v>
       </c>
       <c r="D15" t="n">
-        <v>698000</v>
+        <v>199100</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,19 +795,19 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>8613</t>
+          <t>6999</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>924</v>
+        <v>868</v>
       </c>
       <c r="D16" t="n">
-        <v>303900</v>
+        <v>451600</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>8628</t>
+          <t>7022</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -827,16 +827,177 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>720</v>
+        <v>286</v>
       </c>
       <c r="D17" t="n">
-        <v>298200</v>
+        <v>209200</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>7048</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>306</v>
+      </c>
+      <c r="D18" t="n">
+        <v>211400</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>7085</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>713</v>
+      </c>
+      <c r="D19" t="n">
+        <v>226800</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>7593</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>467</v>
+      </c>
+      <c r="D20" t="n">
+        <v>227900</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>8515</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>437</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1640800</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>8572</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>431</v>
+      </c>
+      <c r="D22" t="n">
+        <v>883900</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>8613</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>917</v>
+      </c>
+      <c r="D23" t="n">
+        <v>346400</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>8628</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>720</v>
+      </c>
+      <c r="D24" t="n">
+        <v>452000</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/07/24/parabolic.xlsx
+++ b/parabolic/2025/07/24/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D2" t="n">
-        <v>200100</v>
+        <v>296800</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -508,7 +508,7 @@
         <v>770</v>
       </c>
       <c r="D3" t="n">
-        <v>608000</v>
+        <v>983700</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>3031</t>
+          <t>2982</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>660</v>
+        <v>347</v>
       </c>
       <c r="D4" t="n">
-        <v>112500</v>
+        <v>1419400</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>3232</t>
+          <t>3031</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>499</v>
+        <v>657</v>
       </c>
       <c r="D5" t="n">
-        <v>224700</v>
+        <v>156900</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>3625</t>
+          <t>3232</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>839</v>
+        <v>500</v>
       </c>
       <c r="D6" t="n">
-        <v>102500</v>
+        <v>256400</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>3679</t>
+          <t>3625</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>476</v>
+        <v>842</v>
       </c>
       <c r="D7" t="n">
-        <v>338700</v>
+        <v>166200</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>3793</t>
+          <t>3668</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>562</v>
+        <v>512</v>
       </c>
       <c r="D8" t="n">
-        <v>155100</v>
+        <v>107700</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>3853</t>
+          <t>3674</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>650</v>
+        <v>397</v>
       </c>
       <c r="D9" t="n">
-        <v>169100</v>
+        <v>110500</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>4228</t>
+          <t>3679</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>349</v>
+        <v>478</v>
       </c>
       <c r="D10" t="n">
-        <v>111600</v>
+        <v>431900</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>4240</t>
+          <t>3793</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>294</v>
+        <v>558</v>
       </c>
       <c r="D11" t="n">
-        <v>103700</v>
+        <v>199500</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>4620</t>
+          <t>3853</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>575</v>
+        <v>644</v>
       </c>
       <c r="D12" t="n">
-        <v>179300</v>
+        <v>207000</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>6093</t>
+          <t>4228</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>131</v>
+        <v>348</v>
       </c>
       <c r="D13" t="n">
-        <v>168900</v>
+        <v>139300</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>6425</t>
+          <t>4240</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>995</v>
+        <v>293</v>
       </c>
       <c r="D14" t="n">
-        <v>368400</v>
+        <v>111100</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>6696</t>
+          <t>4620</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D15" t="n">
-        <v>199100</v>
+        <v>209100</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,19 +795,19 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>6999</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-07-23</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>868</v>
+        <v>298</v>
       </c>
       <c r="D16" t="n">
-        <v>451600</v>
+        <v>121100</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>7022</t>
+          <t>5381</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>286</v>
+        <v>521</v>
       </c>
       <c r="D17" t="n">
-        <v>209200</v>
+        <v>112600</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>7048</t>
+          <t>6093</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>306</v>
+        <v>129</v>
       </c>
       <c r="D18" t="n">
-        <v>211400</v>
+        <v>248100</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -864,7 +864,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>7085</t>
+          <t>6425</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>713</v>
+        <v>996</v>
       </c>
       <c r="D19" t="n">
-        <v>226800</v>
+        <v>451500</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -887,7 +887,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>7593</t>
+          <t>6619</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>467</v>
+        <v>245</v>
       </c>
       <c r="D20" t="n">
-        <v>227900</v>
+        <v>1164500</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -910,7 +910,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>8515</t>
+          <t>6696</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>437</v>
+        <v>578</v>
       </c>
       <c r="D21" t="n">
-        <v>1640800</v>
+        <v>337300</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -933,7 +933,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>8572</t>
+          <t>7022</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -942,10 +942,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>431</v>
+        <v>287</v>
       </c>
       <c r="D22" t="n">
-        <v>883900</v>
+        <v>228600</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -956,7 +956,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>8613</t>
+          <t>7048</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -965,10 +965,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>917</v>
+        <v>304</v>
       </c>
       <c r="D23" t="n">
-        <v>346400</v>
+        <v>244900</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -979,7 +979,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>8628</t>
+          <t>7085</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -988,16 +988,200 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="D24" t="n">
-        <v>452000</v>
+        <v>279000</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>7512</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>898</v>
+      </c>
+      <c r="D25" t="n">
+        <v>109000</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>7590</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>430</v>
+      </c>
+      <c r="D26" t="n">
+        <v>130900</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>7593</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>467</v>
+      </c>
+      <c r="D27" t="n">
+        <v>310000</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>8032</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>650</v>
+      </c>
+      <c r="D28" t="n">
+        <v>190500</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>8515</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>439</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2453500</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>8572</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>430.7000122070312</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1445100</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>8613</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>921</v>
+      </c>
+      <c r="D31" t="n">
+        <v>438200</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>8628</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>720</v>
+      </c>
+      <c r="D32" t="n">
+        <v>648100</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
